--- a/Excel-XLSX/UN-MNE.xlsx
+++ b/Excel-XLSX/UN-MNE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="420">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>8QzC7r</t>
+    <t>3uFp86</t>
   </si>
   <si>
     <t>2016</t>
@@ -690,6 +690,15 @@
     <t>105</t>
   </si>
   <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>107</t>
   </si>
   <si>
@@ -699,7 +708,7 @@
     <t>LBY</t>
   </si>
   <si>
-    <t>106</t>
+    <t>108</t>
   </si>
   <si>
     <t>120</t>
@@ -714,7 +723,7 @@
     <t>MKD</t>
   </si>
   <si>
-    <t>108</t>
+    <t>109</t>
   </si>
   <si>
     <t>130</t>
@@ -729,9 +738,6 @@
     <t>MAR</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
@@ -741,12 +747,12 @@
     <t>112</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>261</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>115</t>
   </si>
   <si>
@@ -756,13 +762,16 @@
     <t>117</t>
   </si>
   <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>16196</t>
   </si>
   <si>
     <t>199</t>
   </si>
   <si>
-    <t>118</t>
+    <t>119</t>
   </si>
   <si>
     <t>16155</t>
@@ -771,15 +780,15 @@
     <t>137</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>121</t>
   </si>
   <si>
     <t>122</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Nepal</t>
   </si>
   <si>
@@ -789,12 +798,12 @@
     <t>NPL</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>124</t>
   </si>
   <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>141</t>
   </si>
   <si>
@@ -807,15 +816,15 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
     <t>126</t>
   </si>
   <si>
     <t>127</t>
   </si>
   <si>
+    <t>128</t>
+  </si>
+  <si>
     <t>147</t>
   </si>
   <si>
@@ -825,9 +834,6 @@
     <t>PAK</t>
   </si>
   <si>
-    <t>128</t>
-  </si>
-  <si>
     <t>129</t>
   </si>
   <si>
@@ -1086,7 +1092,10 @@
     <t>180</t>
   </si>
   <si>
-    <t>40508</t>
+    <t>64640</t>
+  </si>
+  <si>
+    <t>3979</t>
   </si>
   <si>
     <t>181</t>
@@ -1215,7 +1224,7 @@
     <t>503</t>
   </si>
   <si>
-    <t>485</t>
+    <t>416</t>
   </si>
   <si>
     <t>208</t>
@@ -1791,8 +1800,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1859,8 +1868,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1927,8 +1936,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1995,8 +2004,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -2131,8 +2140,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -2199,8 +2208,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -2267,8 +2276,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -2335,8 +2344,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -2403,8 +2412,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -2471,8 +2480,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -2539,8 +2548,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -2607,8 +2616,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -2675,8 +2684,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -2743,8 +2752,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2811,8 +2820,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -2879,8 +2888,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2947,8 +2956,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -3015,8 +3024,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -3151,8 +3160,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -3267,7 +3276,7 @@
         <v>31</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>31</v>
@@ -3282,7 +3291,7 @@
         <v>31</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>33</v>
@@ -3355,8 +3364,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -3423,8 +3432,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -3559,8 +3568,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -3627,8 +3636,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -3695,8 +3704,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -3763,8 +3772,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -3831,8 +3840,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -3947,7 +3956,7 @@
         <v>41</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>31</v>
@@ -3962,7 +3971,7 @@
         <v>31</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>33</v>
@@ -4035,8 +4044,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -4103,8 +4112,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -4171,8 +4180,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -4239,8 +4248,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -4307,8 +4316,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -4375,8 +4384,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -4443,8 +4452,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -4511,8 +4520,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -4579,8 +4588,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -4647,8 +4656,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -4715,8 +4724,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -4783,8 +4792,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -4851,8 +4860,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48">
@@ -4919,8 +4928,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -4987,8 +4996,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -5055,8 +5064,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -5191,8 +5200,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -5259,8 +5268,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -5327,8 +5336,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55">
@@ -5395,8 +5404,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -5463,8 +5472,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -5531,8 +5540,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -5599,8 +5608,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -5667,8 +5676,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -5783,7 +5792,7 @@
         <v>41</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>31</v>
@@ -5798,7 +5807,7 @@
         <v>31</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>33</v>
@@ -5871,8 +5880,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -5939,8 +5948,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64">
@@ -6075,8 +6084,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -6143,8 +6152,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -6211,8 +6220,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68">
@@ -6279,8 +6288,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -6347,8 +6356,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -6415,8 +6424,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71">
@@ -6483,8 +6492,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72">
@@ -6551,8 +6560,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -6619,8 +6628,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74">
@@ -6687,8 +6696,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -6891,8 +6900,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -6959,8 +6968,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79">
@@ -7027,8 +7036,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80">
@@ -7095,8 +7104,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81">
@@ -7163,8 +7172,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82">
@@ -7231,8 +7240,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
@@ -7299,8 +7308,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
@@ -7367,8 +7376,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85">
@@ -7435,8 +7444,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -7503,8 +7512,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -7571,8 +7580,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88">
@@ -7639,8 +7648,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89">
@@ -7707,8 +7716,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -7775,8 +7784,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91">
@@ -7843,8 +7852,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
@@ -7911,8 +7920,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -8047,8 +8056,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95">
@@ -8115,8 +8124,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -8183,8 +8192,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -8251,8 +8260,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98">
@@ -8319,8 +8328,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -8387,8 +8396,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
@@ -8500,7 +8509,7 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>41</v>
@@ -8591,8 +8600,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -8659,8 +8668,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -8727,8 +8736,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -8795,8 +8804,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106">
@@ -8813,19 +8822,19 @@
         <v>223</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="I106" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8843,7 +8852,7 @@
         <v>31</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>31</v>
@@ -8863,8 +8872,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="107">
@@ -8878,22 +8887,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="G107" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8911,7 +8920,7 @@
         <v>31</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>31</v>
@@ -8931,8 +8940,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="108">
@@ -8946,22 +8955,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="I108" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8979,7 +8988,7 @@
         <v>31</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>31</v>
@@ -8994,13 +9003,13 @@
         <v>31</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109">
@@ -9014,23 +9023,23 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F109" s="2" t="s">
+      <c r="H109" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
       </c>
@@ -9047,7 +9056,7 @@
         <v>31</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>31</v>
@@ -9062,13 +9071,13 @@
         <v>31</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110">
@@ -9082,22 +9091,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="H110" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -9115,7 +9124,7 @@
         <v>31</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>31</v>
@@ -9135,8 +9144,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="111">
@@ -9150,22 +9159,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="I111" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -9183,7 +9192,7 @@
         <v>31</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>31</v>
@@ -9203,8 +9212,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="112">
@@ -9218,23 +9227,23 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
       </c>
@@ -9251,7 +9260,7 @@
         <v>31</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>31</v>
@@ -9271,8 +9280,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="113">
@@ -9286,22 +9295,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -9319,7 +9328,7 @@
         <v>31</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>31</v>
@@ -9339,8 +9348,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="114">
@@ -9357,19 +9366,19 @@
         <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -9387,7 +9396,7 @@
         <v>31</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>31</v>
@@ -9407,8 +9416,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="115">
@@ -9422,22 +9431,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -9455,7 +9464,7 @@
         <v>31</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>31</v>
@@ -9475,8 +9484,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="116">
@@ -9490,22 +9499,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9523,7 +9532,7 @@
         <v>31</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P116" s="2" t="s">
         <v>31</v>
@@ -9543,8 +9552,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="117">
@@ -9558,22 +9567,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9591,7 +9600,7 @@
         <v>31</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>31</v>
@@ -9606,7 +9615,7 @@
         <v>31</v>
       </c>
       <c r="T117" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="U117" s="1" t="s">
         <v>33</v>
@@ -9626,22 +9635,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9659,28 +9668,28 @@
         <v>31</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="R118" s="2" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="S118" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="119">
@@ -9697,7 +9706,7 @@
         <v>248</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>28</v>
@@ -9747,8 +9756,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="120">
@@ -9765,7 +9774,7 @@
         <v>251</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>28</v>
@@ -9801,22 +9810,22 @@
         <v>31</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="121">
@@ -9830,10 +9839,10 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>28</v>
@@ -9883,8 +9892,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="122">
@@ -9898,10 +9907,10 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>28</v>
@@ -9946,13 +9955,13 @@
         <v>31</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="123">
@@ -9966,22 +9975,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>256</v>
+        <v>30</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -9999,7 +10008,7 @@
         <v>31</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>31</v>
@@ -10014,13 +10023,13 @@
         <v>31</v>
       </c>
       <c r="T123" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="124">
@@ -10034,22 +10043,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="H124" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -10067,7 +10076,7 @@
         <v>31</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>31</v>
@@ -10082,7 +10091,7 @@
         <v>31</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="U124" s="1" t="s">
         <v>33</v>
@@ -10102,23 +10111,23 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H125" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F125" s="2" t="s">
+      <c r="I125" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
       </c>
@@ -10135,7 +10144,7 @@
         <v>31</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>31</v>
@@ -10150,13 +10159,13 @@
         <v>31</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>33</v>
+      <c r="V125" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="126">
@@ -10170,22 +10179,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H126" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -10203,7 +10212,7 @@
         <v>31</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>31</v>
@@ -10223,8 +10232,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="127">
@@ -10238,22 +10247,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H127" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="I127" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -10291,8 +10300,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="128">
@@ -10306,23 +10315,23 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
       </c>
@@ -10339,7 +10348,7 @@
         <v>31</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>31</v>
@@ -10359,8 +10368,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="129">
@@ -10374,22 +10383,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="G129" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -10407,7 +10416,7 @@
         <v>31</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>31</v>
@@ -10427,8 +10436,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="130">
@@ -10442,22 +10451,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="H130" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -10475,7 +10484,7 @@
         <v>31</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>31</v>
@@ -10495,8 +10504,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="131">
@@ -10510,22 +10519,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -10543,7 +10552,7 @@
         <v>31</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>31</v>
@@ -10563,8 +10572,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="132">
@@ -10578,22 +10587,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="I132" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -10611,7 +10620,7 @@
         <v>31</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>31</v>
@@ -10631,8 +10640,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="133">
@@ -10646,22 +10655,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10679,7 +10688,7 @@
         <v>31</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>31</v>
@@ -10699,8 +10708,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="134">
@@ -10717,19 +10726,19 @@
         <v>28</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -10767,8 +10776,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="135">
@@ -10782,22 +10791,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10815,7 +10824,7 @@
         <v>31</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>31</v>
@@ -10835,8 +10844,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="136">
@@ -10850,22 +10859,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10883,7 +10892,7 @@
         <v>31</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>31</v>
@@ -10898,7 +10907,7 @@
         <v>31</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="U136" s="1" t="s">
         <v>33</v>
@@ -10918,22 +10927,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -10951,7 +10960,7 @@
         <v>31</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P137" s="2" t="s">
         <v>31</v>
@@ -10966,7 +10975,7 @@
         <v>31</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="U137" s="1" t="s">
         <v>33</v>
@@ -10986,22 +10995,22 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
@@ -11039,8 +11048,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="139">
@@ -11054,22 +11063,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -11107,8 +11116,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="140">
@@ -11122,22 +11131,22 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -11175,8 +11184,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="141">
@@ -11190,22 +11199,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -11258,22 +11267,22 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>28</v>
@@ -11288,10 +11297,10 @@
         <v>30</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="P142" s="2" t="s">
         <v>31</v>
@@ -11306,7 +11315,7 @@
         <v>31</v>
       </c>
       <c r="T142" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="U142" s="1" t="s">
         <v>33</v>
@@ -11326,22 +11335,22 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>28</v>
@@ -11379,8 +11388,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="144">
@@ -11394,22 +11403,22 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>28</v>
@@ -11424,7 +11433,7 @@
         <v>30</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>31</v>
@@ -11447,8 +11456,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -11462,22 +11471,22 @@
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>28</v>
@@ -11492,13 +11501,13 @@
         <v>30</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>48</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q145" s="2" t="s">
         <v>31</v>
@@ -11515,8 +11524,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="146">
@@ -11530,22 +11539,22 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>28</v>
@@ -11560,13 +11569,13 @@
         <v>30</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O146" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q146" s="2" t="s">
         <v>31</v>
@@ -11583,8 +11592,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -11598,22 +11607,22 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>28</v>
@@ -11628,7 +11637,7 @@
         <v>30</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O147" s="2" t="s">
         <v>31</v>
@@ -11646,13 +11655,13 @@
         <v>31</v>
       </c>
       <c r="T147" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="148">
@@ -11666,22 +11675,22 @@
         <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>28</v>
@@ -11696,13 +11705,13 @@
         <v>30</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q148" s="2" t="s">
         <v>31</v>
@@ -11714,13 +11723,13 @@
         <v>31</v>
       </c>
       <c r="T148" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="149">
@@ -11734,22 +11743,22 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>28</v>
@@ -11764,7 +11773,7 @@
         <v>30</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>31</v>
@@ -11782,13 +11791,13 @@
         <v>31</v>
       </c>
       <c r="T149" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="150">
@@ -11802,22 +11811,22 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>28</v>
@@ -11832,13 +11841,13 @@
         <v>30</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O150" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>31</v>
@@ -11855,8 +11864,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="151">
@@ -11870,22 +11879,22 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>28</v>
@@ -11900,13 +11909,13 @@
         <v>30</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O151" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q151" s="2" t="s">
         <v>31</v>
@@ -11923,8 +11932,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="152">
@@ -11938,22 +11947,22 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>28</v>
@@ -11968,13 +11977,13 @@
         <v>30</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O152" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q152" s="2" t="s">
         <v>31</v>
@@ -11991,8 +12000,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="153">
@@ -12006,22 +12015,22 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>28</v>
@@ -12036,7 +12045,7 @@
         <v>30</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O153" s="2" t="s">
         <v>31</v>
@@ -12059,8 +12068,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="154">
@@ -12074,22 +12083,22 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>28</v>
@@ -12104,7 +12113,7 @@
         <v>30</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>31</v>
@@ -12127,8 +12136,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="155">
@@ -12142,22 +12151,22 @@
         <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>28</v>
@@ -12172,7 +12181,7 @@
         <v>30</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O155" s="2" t="s">
         <v>41</v>
@@ -12195,8 +12204,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="156">
@@ -12210,22 +12219,22 @@
         <v>22</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>28</v>
@@ -12240,7 +12249,7 @@
         <v>30</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O156" s="2" t="s">
         <v>31</v>
@@ -12258,13 +12267,13 @@
         <v>31</v>
       </c>
       <c r="T156" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="157">
@@ -12278,22 +12287,22 @@
         <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>28</v>
@@ -12308,7 +12317,7 @@
         <v>30</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>41</v>
@@ -12326,13 +12335,13 @@
         <v>31</v>
       </c>
       <c r="T157" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="U157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>33</v>
+      <c r="V157" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="158">
@@ -12346,22 +12355,22 @@
         <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>28</v>
@@ -12414,22 +12423,22 @@
         <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>28</v>
@@ -12447,10 +12456,10 @@
         <v>110</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P159" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="Q159" s="2" t="s">
         <v>31</v>
@@ -12462,7 +12471,7 @@
         <v>31</v>
       </c>
       <c r="T159" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="U159" s="1" t="s">
         <v>33</v>
@@ -12482,22 +12491,22 @@
         <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>28</v>
@@ -12535,8 +12544,8 @@
       <c r="U160" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>33</v>
+      <c r="V160" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="161">
@@ -12550,22 +12559,22 @@
         <v>22</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>28</v>
@@ -12603,8 +12612,8 @@
       <c r="U161" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>33</v>
+      <c r="V161" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="162">
@@ -12618,22 +12627,22 @@
         <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>28</v>
@@ -12671,8 +12680,8 @@
       <c r="U162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>33</v>
+      <c r="V162" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="163">
@@ -12686,22 +12695,22 @@
         <v>22</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>28</v>
@@ -12739,8 +12748,8 @@
       <c r="U163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>33</v>
+      <c r="V163" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="164">
@@ -12754,22 +12763,22 @@
         <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>28</v>
@@ -12807,8 +12816,8 @@
       <c r="U164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>33</v>
+      <c r="V164" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="165">
@@ -12822,22 +12831,22 @@
         <v>22</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>28</v>
@@ -12875,8 +12884,8 @@
       <c r="U165" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>33</v>
+      <c r="V165" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="166">
@@ -12890,22 +12899,22 @@
         <v>22</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>28</v>
@@ -12943,8 +12952,8 @@
       <c r="U166" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>33</v>
+      <c r="V166" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="167">
@@ -12958,22 +12967,22 @@
         <v>22</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>28</v>
@@ -13011,8 +13020,8 @@
       <c r="U167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>33</v>
+      <c r="V167" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="168">
@@ -13026,22 +13035,22 @@
         <v>22</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>28</v>
@@ -13079,8 +13088,8 @@
       <c r="U168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>33</v>
+      <c r="V168" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="169">
@@ -13094,22 +13103,22 @@
         <v>22</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>28</v>
@@ -13147,8 +13156,8 @@
       <c r="U169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>33</v>
+      <c r="V169" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="170">
@@ -13162,22 +13171,22 @@
         <v>22</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>28</v>
@@ -13230,22 +13239,22 @@
         <v>22</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>28</v>
@@ -13283,8 +13292,8 @@
       <c r="U171" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>33</v>
+      <c r="V171" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="172">
@@ -13298,22 +13307,22 @@
         <v>22</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>28</v>
@@ -13351,8 +13360,8 @@
       <c r="U172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>33</v>
+      <c r="V172" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="173">
@@ -13366,22 +13375,22 @@
         <v>22</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>28</v>
@@ -13419,8 +13428,8 @@
       <c r="U173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>33</v>
+      <c r="V173" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="174">
@@ -13434,22 +13443,22 @@
         <v>22</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>28</v>
@@ -13487,8 +13496,8 @@
       <c r="U174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>33</v>
+      <c r="V174" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="175">
@@ -13502,22 +13511,22 @@
         <v>22</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>28</v>
@@ -13555,8 +13564,8 @@
       <c r="U175" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>33</v>
+      <c r="V175" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="176">
@@ -13576,16 +13585,16 @@
         <v>42</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>28</v>
@@ -13638,22 +13647,22 @@
         <v>22</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>28</v>
@@ -13671,7 +13680,7 @@
         <v>31</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="P177" s="2" t="s">
         <v>31</v>
@@ -13706,22 +13715,22 @@
         <v>22</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>28</v>
@@ -13759,8 +13768,8 @@
       <c r="U178" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>33</v>
+      <c r="V178" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="179">
@@ -13774,22 +13783,22 @@
         <v>22</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>28</v>
@@ -13827,8 +13836,8 @@
       <c r="U179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>33</v>
+      <c r="V179" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="180">
@@ -13842,22 +13851,22 @@
         <v>22</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>28</v>
@@ -13872,13 +13881,13 @@
         <v>30</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="O180" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q180" s="2" t="s">
         <v>31</v>
@@ -13910,22 +13919,22 @@
         <v>22</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>28</v>
@@ -13940,13 +13949,13 @@
         <v>30</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O181" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P181" s="2" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="Q181" s="2" t="s">
         <v>31</v>
@@ -13978,22 +13987,22 @@
         <v>22</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>28</v>
@@ -14046,22 +14055,22 @@
         <v>22</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>28</v>
@@ -14099,8 +14108,8 @@
       <c r="U183" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>33</v>
+      <c r="V183" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="184">
@@ -14114,22 +14123,22 @@
         <v>22</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>28</v>
@@ -14167,8 +14176,8 @@
       <c r="U184" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>33</v>
+      <c r="V184" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="185">
@@ -14182,22 +14191,22 @@
         <v>22</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>28</v>
@@ -14235,8 +14244,8 @@
       <c r="U185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>33</v>
+      <c r="V185" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="186">
@@ -14250,22 +14259,22 @@
         <v>22</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>28</v>
@@ -14303,8 +14312,8 @@
       <c r="U186" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>33</v>
+      <c r="V186" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="187">
@@ -14318,22 +14327,22 @@
         <v>22</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>28</v>
@@ -14371,8 +14380,8 @@
       <c r="U187" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>33</v>
+      <c r="V187" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="188">
@@ -14386,22 +14395,22 @@
         <v>22</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>28</v>
@@ -14439,8 +14448,8 @@
       <c r="U188" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>33</v>
+      <c r="V188" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="189">
@@ -14454,22 +14463,22 @@
         <v>22</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>28</v>
@@ -14507,8 +14516,8 @@
       <c r="U189" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>33</v>
+      <c r="V189" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="190">
@@ -14522,22 +14531,22 @@
         <v>22</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>28</v>
@@ -14575,8 +14584,8 @@
       <c r="U190" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>33</v>
+      <c r="V190" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="191">
@@ -14590,22 +14599,22 @@
         <v>22</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>28</v>
@@ -14658,22 +14667,22 @@
         <v>22</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>28</v>
@@ -14726,22 +14735,22 @@
         <v>22</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>28</v>
@@ -14771,7 +14780,7 @@
         <v>31</v>
       </c>
       <c r="S193" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="T193" s="2" t="s">
         <v>31</v>
@@ -14779,8 +14788,8 @@
       <c r="U193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>33</v>
+      <c r="V193" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="194">
@@ -14794,22 +14803,22 @@
         <v>22</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>28</v>
@@ -14839,7 +14848,7 @@
         <v>31</v>
       </c>
       <c r="S194" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="T194" s="2" t="s">
         <v>31</v>
@@ -14847,8 +14856,8 @@
       <c r="U194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>33</v>
+      <c r="V194" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="195">
@@ -14862,22 +14871,22 @@
         <v>22</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>28</v>
@@ -14907,7 +14916,7 @@
         <v>31</v>
       </c>
       <c r="S195" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="T195" s="2" t="s">
         <v>31</v>
@@ -14915,8 +14924,8 @@
       <c r="U195" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>33</v>
+      <c r="V195" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="196">
@@ -14930,22 +14939,22 @@
         <v>22</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>28</v>
@@ -14975,7 +14984,7 @@
         <v>31</v>
       </c>
       <c r="S196" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="T196" s="2" t="s">
         <v>31</v>
@@ -14983,8 +14992,8 @@
       <c r="U196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>33</v>
+      <c r="V196" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="197">
@@ -14998,22 +15007,22 @@
         <v>22</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>28</v>
@@ -15043,7 +15052,7 @@
         <v>31</v>
       </c>
       <c r="S197" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="T197" s="2" t="s">
         <v>31</v>
@@ -15051,8 +15060,8 @@
       <c r="U197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>33</v>
+      <c r="V197" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="198">
@@ -15066,22 +15075,22 @@
         <v>22</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>28</v>
@@ -15111,7 +15120,7 @@
         <v>31</v>
       </c>
       <c r="S198" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="T198" s="2" t="s">
         <v>31</v>
@@ -15119,8 +15128,8 @@
       <c r="U198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>33</v>
+      <c r="V198" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="199">
@@ -15134,22 +15143,22 @@
         <v>22</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>28</v>
@@ -15179,7 +15188,7 @@
         <v>31</v>
       </c>
       <c r="S199" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="T199" s="2" t="s">
         <v>31</v>
@@ -15187,8 +15196,8 @@
       <c r="U199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>33</v>
+      <c r="V199" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="200">
@@ -15202,22 +15211,22 @@
         <v>22</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>28</v>
@@ -15247,7 +15256,7 @@
         <v>31</v>
       </c>
       <c r="S200" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="T200" s="2" t="s">
         <v>31</v>
@@ -15255,8 +15264,8 @@
       <c r="U200" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>33</v>
+      <c r="V200" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="201">
@@ -15270,22 +15279,22 @@
         <v>22</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>28</v>
@@ -15315,7 +15324,7 @@
         <v>31</v>
       </c>
       <c r="S201" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="T201" s="2" t="s">
         <v>31</v>
@@ -15323,8 +15332,8 @@
       <c r="U201" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>33</v>
+      <c r="V201" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="202">
@@ -15338,22 +15347,22 @@
         <v>22</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>28</v>
@@ -15383,7 +15392,7 @@
         <v>31</v>
       </c>
       <c r="S202" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="T202" s="2" t="s">
         <v>31</v>
@@ -15391,8 +15400,8 @@
       <c r="U202" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>33</v>
+      <c r="V202" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="203">
@@ -15406,22 +15415,22 @@
         <v>22</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>28</v>
@@ -15451,7 +15460,7 @@
         <v>31</v>
       </c>
       <c r="S203" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="T203" s="2" t="s">
         <v>31</v>
@@ -15459,8 +15468,8 @@
       <c r="U203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>33</v>
+      <c r="V203" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="204">
@@ -15474,22 +15483,22 @@
         <v>22</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>28</v>
@@ -15519,7 +15528,7 @@
         <v>31</v>
       </c>
       <c r="S204" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="T204" s="2" t="s">
         <v>31</v>
@@ -15527,8 +15536,8 @@
       <c r="U204" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>33</v>
+      <c r="V204" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="205">
@@ -15542,22 +15551,22 @@
         <v>22</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>28</v>
@@ -15587,7 +15596,7 @@
         <v>31</v>
       </c>
       <c r="S205" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="T205" s="2" t="s">
         <v>31</v>
@@ -15595,8 +15604,8 @@
       <c r="U205" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>33</v>
+      <c r="V205" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="206">
@@ -15610,22 +15619,22 @@
         <v>22</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>28</v>
@@ -15655,7 +15664,7 @@
         <v>31</v>
       </c>
       <c r="S206" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="T206" s="2" t="s">
         <v>31</v>
@@ -15663,8 +15672,8 @@
       <c r="U206" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>33</v>
+      <c r="V206" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="207">
@@ -15678,22 +15687,22 @@
         <v>22</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J207" s="2" t="s">
         <v>28</v>
@@ -15723,7 +15732,7 @@
         <v>31</v>
       </c>
       <c r="S207" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="T207" s="2" t="s">
         <v>31</v>
@@ -15746,22 +15755,22 @@
         <v>22</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>28</v>
@@ -15791,7 +15800,7 @@
         <v>31</v>
       </c>
       <c r="S208" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="T208" s="2" t="s">
         <v>31</v>
@@ -15814,22 +15823,22 @@
         <v>22</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>28</v>
@@ -15862,13 +15871,13 @@
         <v>31</v>
       </c>
       <c r="T209" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="U209" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>33</v>
+      <c r="V209" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="210">
@@ -15882,22 +15891,22 @@
         <v>22</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>28</v>
@@ -15930,13 +15939,13 @@
         <v>31</v>
       </c>
       <c r="T210" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="U210" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>33</v>
+      <c r="V210" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="211">
@@ -15950,22 +15959,22 @@
         <v>22</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J211" s="2" t="s">
         <v>28</v>
@@ -15998,13 +16007,13 @@
         <v>31</v>
       </c>
       <c r="T211" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="U211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>33</v>
+      <c r="V211" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="212">
@@ -16018,22 +16027,22 @@
         <v>22</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>28</v>
@@ -16066,13 +16075,13 @@
         <v>31</v>
       </c>
       <c r="T212" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="U212" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>33</v>
+      <c r="V212" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="213">
@@ -16086,22 +16095,22 @@
         <v>22</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J213" s="2" t="s">
         <v>28</v>
@@ -16134,13 +16143,13 @@
         <v>31</v>
       </c>
       <c r="T213" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="U213" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>33</v>
+      <c r="V213" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="214">
@@ -16154,22 +16163,22 @@
         <v>22</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>28</v>
@@ -16202,13 +16211,13 @@
         <v>31</v>
       </c>
       <c r="T214" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="U214" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>33</v>
+      <c r="V214" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="215">
@@ -16228,16 +16237,16 @@
         <v>40</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>28</v>
@@ -16270,13 +16279,13 @@
         <v>31</v>
       </c>
       <c r="T215" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="U215" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>33</v>
+      <c r="V215" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="216">
@@ -16290,55 +16299,55 @@
         <v>22</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I216" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N216" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O216" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P216" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q216" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R216" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S216" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T216" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="J216" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K216" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M216" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N216" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O216" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P216" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q216" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R216" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S216" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T216" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="U216" s="1" t="s">
         <v>33</v>
@@ -16358,22 +16367,22 @@
         <v>22</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>28</v>
@@ -16406,7 +16415,7 @@
         <v>31</v>
       </c>
       <c r="T217" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="U217" s="1" t="s">
         <v>33</v>

--- a/Excel-XLSX/UN-MNE.xlsx
+++ b/Excel-XLSX/UN-MNE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>3uFp86</t>
+    <t>P1iR5q</t>
   </si>
   <si>
     <t>2006</t>
@@ -1299,25 +1299,22 @@
     <t>222</t>
   </si>
   <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
     <t>223</t>
   </si>
   <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CMR</t>
-  </si>
-  <si>
     <t>224</t>
   </si>
   <si>
     <t>225</t>
   </si>
   <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
+    <t>423</t>
   </si>
   <si>
     <t>226</t>
@@ -1329,91 +1326,10 @@
     <t>228</t>
   </si>
   <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>GIN</t>
+    <t>18558</t>
   </si>
   <si>
     <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>SLE</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>21948</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>246</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1714,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V247"/>
+  <dimension ref="A1:V230"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -16579,16 +16495,16 @@
         <v>421</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>241</v>
+        <v>383</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>242</v>
+        <v>384</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>242</v>
+        <v>384</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>29</v>
@@ -16603,7 +16519,7 @@
         <v>31</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O218" s="2" t="s">
         <v>35</v>
@@ -16621,7 +16537,7 @@
         <v>35</v>
       </c>
       <c r="T218" s="2" t="s">
-        <v>414</v>
+        <v>35</v>
       </c>
       <c r="U218" s="1" t="s">
         <v>36</v>
@@ -16647,16 +16563,16 @@
         <v>421</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>29</v>
@@ -16671,10 +16587,10 @@
         <v>31</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="P219" s="2" t="s">
         <v>35</v>
@@ -16689,7 +16605,7 @@
         <v>35</v>
       </c>
       <c r="T219" s="2" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="U219" s="1" t="s">
         <v>36</v>
@@ -16715,16 +16631,16 @@
         <v>421</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>315</v>
+        <v>246</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>29</v>
@@ -16739,10 +16655,10 @@
         <v>31</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="P220" s="2" t="s">
         <v>35</v>
@@ -16757,7 +16673,7 @@
         <v>35</v>
       </c>
       <c r="T220" s="2" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="U220" s="1" t="s">
         <v>36</v>
@@ -16783,16 +16699,16 @@
         <v>421</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>383</v>
+        <v>294</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>384</v>
+        <v>295</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>384</v>
+        <v>295</v>
       </c>
       <c r="J221" s="2" t="s">
         <v>29</v>
@@ -16807,10 +16723,10 @@
         <v>31</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O221" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="P221" s="2" t="s">
         <v>35</v>
@@ -16851,16 +16767,16 @@
         <v>421</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>29</v>
@@ -16875,10 +16791,10 @@
         <v>31</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P222" s="2" t="s">
         <v>35</v>
@@ -16893,7 +16809,7 @@
         <v>35</v>
       </c>
       <c r="T222" s="2" t="s">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="U222" s="1" t="s">
         <v>36</v>
@@ -16919,16 +16835,16 @@
         <v>421</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>102</v>
+        <v>351</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>269</v>
+        <v>427</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>270</v>
+        <v>428</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>270</v>
+        <v>428</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>29</v>
@@ -16943,10 +16859,10 @@
         <v>31</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="O223" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="P223" s="2" t="s">
         <v>35</v>
@@ -16981,22 +16897,22 @@
         <v>22</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>421</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>428</v>
+        <v>328</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>29</v>
@@ -17011,10 +16927,10 @@
         <v>31</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="O224" s="2" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="P224" s="2" t="s">
         <v>35</v>
@@ -17029,7 +16945,7 @@
         <v>35</v>
       </c>
       <c r="T224" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U224" s="1" t="s">
         <v>36</v>
@@ -17055,16 +16971,16 @@
         <v>421</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>246</v>
+        <v>48</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>247</v>
+        <v>49</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>247</v>
+        <v>49</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>29</v>
@@ -17079,10 +16995,10 @@
         <v>31</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="O225" s="2" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="P225" s="2" t="s">
         <v>35</v>
@@ -17123,49 +17039,49 @@
         <v>421</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="G226" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M226" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N226" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O226" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P226" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q226" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R226" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S226" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="H226" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="I226" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="J226" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K226" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M226" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N226" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O226" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P226" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q226" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R226" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S226" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="T226" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U226" s="1" t="s">
         <v>36</v>
@@ -17185,22 +17101,22 @@
         <v>22</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>421</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>292</v>
+        <v>151</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>29</v>
@@ -17218,7 +17134,7 @@
         <v>35</v>
       </c>
       <c r="O227" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P227" s="2" t="s">
         <v>35</v>
@@ -17233,7 +17149,7 @@
         <v>35</v>
       </c>
       <c r="T227" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="U227" s="1" t="s">
         <v>36</v>
@@ -17253,22 +17169,22 @@
         <v>22</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>421</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>29</v>
@@ -17283,10 +17199,10 @@
         <v>31</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="P228" s="2" t="s">
         <v>35</v>
@@ -17321,22 +17237,22 @@
         <v>22</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>421</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>437</v>
+        <v>237</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>438</v>
+        <v>238</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>439</v>
+        <v>238</v>
       </c>
       <c r="J229" s="2" t="s">
         <v>29</v>
@@ -17351,7 +17267,7 @@
         <v>31</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>35</v>
+        <v>436</v>
       </c>
       <c r="O229" s="2" t="s">
         <v>35</v>
@@ -17369,7 +17285,7 @@
         <v>35</v>
       </c>
       <c r="T229" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U229" s="1" t="s">
         <v>36</v>
@@ -17389,22 +17305,22 @@
         <v>22</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>421</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>392</v>
+        <v>266</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>392</v>
+        <v>266</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>29</v>
@@ -17419,7 +17335,7 @@
         <v>31</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="O230" s="2" t="s">
         <v>35</v>
@@ -17437,1168 +17353,12 @@
         <v>35</v>
       </c>
       <c r="T230" s="2" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="U230" s="1" t="s">
         <v>36</v>
       </c>
       <c r="V230" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J231" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K231" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M231" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N231" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O231" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P231" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q231" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R231" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S231" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T231" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="U231" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V231" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J232" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K232" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M232" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N232" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O232" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P232" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q232" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R232" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S232" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T232" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U232" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V232" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H233" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I233" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="J233" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K233" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M233" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N233" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O233" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P233" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q233" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R233" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S233" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T233" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U233" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V233" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H234" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I234" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J234" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K234" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L234" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M234" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N234" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O234" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P234" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q234" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R234" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S234" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T234" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="U234" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V234" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I235" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J235" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K235" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L235" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M235" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N235" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O235" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P235" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q235" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R235" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S235" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T235" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="U235" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V235" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J236" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K236" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L236" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M236" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N236" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O236" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P236" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q236" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R236" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S236" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T236" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="U236" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V236" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I237" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J237" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K237" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L237" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M237" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N237" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O237" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="P237" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q237" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R237" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S237" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T237" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="U237" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V237" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="J238" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K238" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L238" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M238" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N238" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O238" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P238" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q238" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R238" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S238" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T238" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U238" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V238" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H239" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I239" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J239" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K239" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L239" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M239" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N239" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O239" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P239" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q239" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R239" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S239" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T239" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="U239" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V239" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H240" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I240" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J240" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K240" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L240" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M240" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N240" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O240" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P240" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q240" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R240" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S240" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T240" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="U240" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V240" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H241" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I241" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J241" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K241" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L241" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M241" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N241" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O241" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P241" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q241" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R241" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S241" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="T241" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U241" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V241" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H242" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I242" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J242" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K242" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L242" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M242" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N242" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O242" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P242" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q242" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R242" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S242" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T242" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="U242" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V242" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H243" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I243" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J243" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K243" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L243" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M243" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N243" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O243" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P243" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q243" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R243" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S243" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T243" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="U243" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V243" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I244" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J244" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K244" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L244" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M244" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N244" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O244" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P244" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q244" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R244" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S244" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T244" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U244" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V244" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I245" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J245" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K245" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L245" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M245" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N245" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O245" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P245" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q245" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R245" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S245" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T245" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U245" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V245" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J246" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K246" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L246" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N246" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="O246" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P246" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q246" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R246" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S246" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T246" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U246" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V246" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H247" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I247" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J247" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K247" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L247" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M247" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N247" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O247" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P247" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q247" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R247" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S247" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T247" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U247" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V247" s="2" t="s">
         <v>35</v>
       </c>
     </row>
